--- a/env.xlsx
+++ b/env.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2irs\Desktop\E5\RPA Expertise\Projet\AutomatisationGestionCommandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5543FB1B-564B-44FB-8AB4-BFDF955B1A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD5EC17-34D1-4F06-8DAF-80E3C973E37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
